--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43432,6 +43432,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43580,6 +43580,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>28300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,41 @@
         <v>28300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,43 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,80 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,80 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43905,6 +43905,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43977,6 +43977,76 @@
         <v>300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44047,6 +44047,43 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44084,6 +44084,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2008"/>
+  <dimension ref="A1:I2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71246,6 +71246,41 @@
         </is>
       </c>
     </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>34900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2009"/>
+  <dimension ref="A1:I2010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71281,6 +71281,41 @@
         <v>34900</v>
       </c>
     </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2010"/>
+  <dimension ref="A1:I2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71316,6 +71316,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2011"/>
+  <dimension ref="A1:I2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71351,6 +71351,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>39800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2012"/>
+  <dimension ref="A1:I2013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71386,6 +71386,41 @@
         <v>39800</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2013"/>
+  <dimension ref="A1:I2014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71421,6 +71421,41 @@
         <v>700</v>
       </c>
     </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2014"/>
+  <dimension ref="A1:I2015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71456,6 +71456,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>4434300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2015"/>
+  <dimension ref="A1:I2016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71491,6 +71491,41 @@
         <v>4434300</v>
       </c>
     </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>331300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2016"/>
+  <dimension ref="A1:I2017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71526,6 +71526,41 @@
         <v>331300</v>
       </c>
     </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>62700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2017"/>
+  <dimension ref="A1:I2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71561,6 +71561,41 @@
         <v>62700</v>
       </c>
     </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>115400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2018"/>
+  <dimension ref="A1:I2019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71596,6 +71596,41 @@
         <v>115400</v>
       </c>
     </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>152000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2019"/>
+  <dimension ref="A1:I2020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71631,6 +71631,41 @@
         <v>152000</v>
       </c>
     </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>150600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2020"/>
+  <dimension ref="A1:I2021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71666,6 +71666,41 @@
         <v>150600</v>
       </c>
     </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>277000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2021"/>
+  <dimension ref="A1:I2022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71701,6 +71701,41 @@
         <v>277000</v>
       </c>
     </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>19800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8931.xlsx
+++ b/data/8931.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2022"/>
+  <dimension ref="A1:I2023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71736,6 +71736,41 @@
         <v>19800</v>
       </c>
     </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>JERASIA</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>42900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
